--- a/Lab02/工作簿1.xlsx
+++ b/Lab02/工作簿1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjiawei/Desktop/Computer_Network/CNlab/Lab02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangJiawei\Desktop\2024_zjw_ComputerNetwork\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB69E213-837F-FE41-8378-C546C8E224DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C2B043-6F27-4266-9618-9A673B263EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28240" windowHeight="16080" xr2:uid="{CA9B46EF-C472-8C40-88EB-7F071A85B24B}"/>
+    <workbookView xWindow="2730" yWindow="1170" windowWidth="19200" windowHeight="11170" xr2:uid="{CA9B46EF-C472-8C40-88EB-7F071A85B24B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
   <si>
     <t>带宽</t>
   </si>
@@ -78,12 +79,28 @@
     <t>均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +169,1213 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1MB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.088888888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2894736842105265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2250000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0AF9-4132-AD72-9A66A283E8DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10MB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.890625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6633663366336635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3023255813953494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0AF9-4132-AD72-9A66A283E8DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100MB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6808510638297882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.816326530612246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0AF9-4132-AD72-9A66A283E8DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2000539360"/>
+        <c:axId val="2000535040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2000539360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>带宽（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>为底取对数）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000535040"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2000535040"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>FCT</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>改进比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000539360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49389</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>183446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C134EC-D503-EB16-D194-10B21D1511CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,15 +1675,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F7BE2-AA29-3A4B-8339-E282B33FF5F6}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -506,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>10</v>
       </c>
@@ -541,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -576,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -623,7 +1847,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -670,7 +1894,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -717,7 +1941,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -774,7 +1998,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>10</v>
@@ -858,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -895,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -942,7 +2166,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -989,7 +2213,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1036,7 +2260,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +2317,7 @@
         <v>2.8666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +2364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>10</v>
@@ -1177,7 +2401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -1214,7 +2438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1261,7 +2485,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -1308,7 +2532,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -1355,7 +2579,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1410,10 +2634,131 @@
       <c r="S23" s="1">
         <f>AVERAGE(S20:S22)</f>
         <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <f>LOG10(A26)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>C7/C7</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>C15/C15</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>C23/C23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B30" si="0">LOG10(A27)</f>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D27">
+        <f>C7/G7</f>
+        <v>1.2250000000000003</v>
+      </c>
+      <c r="E27">
+        <f>C15/G15</f>
+        <v>2.9838709677419355</v>
+      </c>
+      <c r="F27">
+        <f>C23/G23</f>
+        <v>4.4857142857142858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>C7/K7</f>
+        <v>1.088888888888889</v>
+      </c>
+      <c r="E28">
+        <f>C15/K15</f>
+        <v>2.890625</v>
+      </c>
+      <c r="F28">
+        <f>C23/K23</f>
+        <v>6.6808510638297882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>500</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="D29">
+        <f>C7/O7</f>
+        <v>1.2894736842105265</v>
+      </c>
+      <c r="E29">
+        <f>C15/O15</f>
+        <v>3.6633663366336635</v>
+      </c>
+      <c r="F29">
+        <f>C23/O23</f>
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f>C7/S7</f>
+        <v>1.2250000000000003</v>
+      </c>
+      <c r="E30">
+        <f>C15/S15</f>
+        <v>4.3023255813953494</v>
+      </c>
+      <c r="F30">
+        <f>C23/S23</f>
+        <v>12.816326530612246</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>